--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H2">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I2">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J2">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N2">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O2">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P2">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q2">
-        <v>164.73163956245</v>
+        <v>100.2337211638933</v>
       </c>
       <c r="R2">
-        <v>1482.58475606205</v>
+        <v>902.1034904750401</v>
       </c>
       <c r="S2">
-        <v>0.02540441300331974</v>
+        <v>0.03704423852257561</v>
       </c>
       <c r="T2">
-        <v>0.02540441300331974</v>
+        <v>0.03704423852257561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H3">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I3">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J3">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N3">
         <v>16.081472</v>
       </c>
       <c r="O3">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P3">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q3">
-        <v>759.6248938361599</v>
+        <v>126.9204357903289</v>
       </c>
       <c r="R3">
-        <v>6836.62404452544</v>
+        <v>1142.28392211296</v>
       </c>
       <c r="S3">
-        <v>0.117147043408749</v>
+        <v>0.04690707720127869</v>
       </c>
       <c r="T3">
-        <v>0.117147043408749</v>
+        <v>0.04690707720127869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H4">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I4">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J4">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N4">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O4">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P4">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q4">
-        <v>70.29193624300001</v>
+        <v>3.494041272468334</v>
       </c>
       <c r="R4">
-        <v>632.6274261870001</v>
+        <v>31.446371452215</v>
       </c>
       <c r="S4">
-        <v>0.01084020886250708</v>
+        <v>0.001291322888166562</v>
       </c>
       <c r="T4">
-        <v>0.01084020886250708</v>
+        <v>0.001291322888166562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H5">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I5">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J5">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N5">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O5">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P5">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q5">
-        <v>1731.25793851248</v>
+        <v>249.9049855767317</v>
       </c>
       <c r="R5">
-        <v>15581.32144661232</v>
+        <v>2249.144870190586</v>
       </c>
       <c r="S5">
-        <v>0.2669893397653795</v>
+        <v>0.09235953515631885</v>
       </c>
       <c r="T5">
-        <v>0.2669893397653795</v>
+        <v>0.09235953515631885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H6">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I6">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J6">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N6">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O6">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P6">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q6">
-        <v>25.81349843837</v>
+        <v>6.925306876995557</v>
       </c>
       <c r="R6">
-        <v>232.32148594533</v>
+        <v>62.32776189296001</v>
       </c>
       <c r="S6">
-        <v>0.003980879308496744</v>
+        <v>0.002559445232747377</v>
       </c>
       <c r="T6">
-        <v>0.003980879308496744</v>
+        <v>0.002559445232747376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H7">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I7">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J7">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N7">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O7">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P7">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q7">
-        <v>17.5330696154</v>
+        <v>38.06453215505111</v>
       </c>
       <c r="R7">
-        <v>157.7976265386</v>
+        <v>342.58078939546</v>
       </c>
       <c r="S7">
-        <v>0.002703896731123833</v>
+        <v>0.01406783657264742</v>
       </c>
       <c r="T7">
-        <v>0.002703896731123833</v>
+        <v>0.01406783657264742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H8">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I8">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J8">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N8">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O8">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P8">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q8">
-        <v>21.30361075955556</v>
+        <v>63.05671690363733</v>
       </c>
       <c r="R8">
-        <v>191.732496836</v>
+        <v>567.510452132736</v>
       </c>
       <c r="S8">
-        <v>0.003285378131579536</v>
+        <v>0.02330441326835934</v>
       </c>
       <c r="T8">
-        <v>0.003285378131579536</v>
+        <v>0.02330441326835934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H9">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I9">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J9">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N9">
         <v>16.081472</v>
       </c>
       <c r="O9">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P9">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q9">
-        <v>98.23706668942222</v>
+        <v>79.84524465405156</v>
       </c>
       <c r="R9">
-        <v>884.1336002047999</v>
+        <v>718.6072018864641</v>
       </c>
       <c r="S9">
-        <v>0.01514982198344867</v>
+        <v>0.02950909388090808</v>
       </c>
       <c r="T9">
-        <v>0.01514982198344867</v>
+        <v>0.02950909388090808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H10">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I10">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J10">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N10">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O10">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P10">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q10">
-        <v>9.090373004444446</v>
+        <v>2.198090311417333</v>
       </c>
       <c r="R10">
-        <v>81.81335704000001</v>
+        <v>19.782812802756</v>
       </c>
       <c r="S10">
-        <v>0.001401889708452682</v>
+        <v>0.0008123671439591138</v>
       </c>
       <c r="T10">
-        <v>0.001401889708452682</v>
+        <v>0.0008123671439591138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H11">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I11">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J11">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N11">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O11">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P11">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q11">
-        <v>223.8916904149334</v>
+        <v>157.2144358738627</v>
       </c>
       <c r="R11">
-        <v>2015.0252137344</v>
+        <v>1414.929922864764</v>
       </c>
       <c r="S11">
-        <v>0.03452789631925023</v>
+        <v>0.05810309139556764</v>
       </c>
       <c r="T11">
-        <v>0.03452789631925023</v>
+        <v>0.05810309139556764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H12">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I12">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J12">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N12">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O12">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P12">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q12">
-        <v>3.338282339288889</v>
+        <v>4.356688648718222</v>
       </c>
       <c r="R12">
-        <v>30.0445410536</v>
+        <v>39.210197838464</v>
       </c>
       <c r="S12">
-        <v>0.0005148197607590303</v>
+        <v>0.001610138899341315</v>
       </c>
       <c r="T12">
-        <v>0.0005148197607590302</v>
+        <v>0.001610138899341315</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H13">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I13">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J13">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N13">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O13">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P13">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q13">
-        <v>2.267431390222222</v>
+        <v>23.94627676494044</v>
       </c>
       <c r="R13">
-        <v>20.406882512</v>
+        <v>215.516490884464</v>
       </c>
       <c r="S13">
-        <v>0.0003496763806084714</v>
+        <v>0.008850031485487832</v>
       </c>
       <c r="T13">
-        <v>0.0003496763806084714</v>
+        <v>0.008850031485487833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H14">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I14">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J14">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N14">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O14">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P14">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q14">
-        <v>199.6937096195433</v>
+        <v>352.7678542641493</v>
       </c>
       <c r="R14">
-        <v>1797.24338657589</v>
+        <v>3174.910688377344</v>
       </c>
       <c r="S14">
-        <v>0.03079615723375754</v>
+        <v>0.1303754503446068</v>
       </c>
       <c r="T14">
-        <v>0.03079615723375754</v>
+        <v>0.1303754503446068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H15">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I15">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J15">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N15">
         <v>16.081472</v>
       </c>
       <c r="O15">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P15">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q15">
-        <v>920.8450384662614</v>
+        <v>446.690487753273</v>
       </c>
       <c r="R15">
-        <v>8287.605346196351</v>
+        <v>4020.214389779457</v>
       </c>
       <c r="S15">
-        <v>0.1420099243314229</v>
+        <v>0.1650872459084023</v>
       </c>
       <c r="T15">
-        <v>0.1420099243314229</v>
+        <v>0.1650872459084023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H16">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I16">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J16">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N16">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O16">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P16">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q16">
-        <v>85.21045223606669</v>
+        <v>12.29711346726933</v>
       </c>
       <c r="R16">
-        <v>766.8940701246001</v>
+        <v>110.674021205424</v>
       </c>
       <c r="S16">
-        <v>0.01314089707693366</v>
+        <v>0.004544750001607221</v>
       </c>
       <c r="T16">
-        <v>0.01314089707693366</v>
+        <v>0.004544750001607221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H17">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I17">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J17">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N17">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O17">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P17">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q17">
-        <v>2098.694100101985</v>
+        <v>879.5288103458508</v>
       </c>
       <c r="R17">
-        <v>18888.24690091786</v>
+        <v>7915.759293112657</v>
       </c>
       <c r="S17">
-        <v>0.3236542283451813</v>
+        <v>0.3250550279845893</v>
       </c>
       <c r="T17">
-        <v>0.3236542283451813</v>
+        <v>0.3250550279845892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H18">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I18">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J18">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N18">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O18">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P18">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q18">
-        <v>31.29206553827934</v>
+        <v>24.37329093193956</v>
       </c>
       <c r="R18">
-        <v>281.6285898445141</v>
+        <v>219.359618387456</v>
       </c>
       <c r="S18">
-        <v>0.004825767282914878</v>
+        <v>0.009007846784283027</v>
       </c>
       <c r="T18">
-        <v>0.004825767282914878</v>
+        <v>0.009007846784283027</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H19">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I19">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J19">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N19">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O19">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P19">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q19">
-        <v>21.25422731065333</v>
+        <v>133.9663256634951</v>
       </c>
       <c r="R19">
-        <v>191.28804579588</v>
+        <v>1205.696930971456</v>
       </c>
       <c r="S19">
-        <v>0.003277762366115338</v>
+        <v>0.04951108732915362</v>
       </c>
       <c r="T19">
-        <v>0.003277762366115339</v>
+        <v>0.04951108732915362</v>
       </c>
     </row>
   </sheetData>
